--- a/data/population_models/models_summary_hainich_weight95.xlsx
+++ b/data/population_models/models_summary_hainich_weight95.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,50 +365,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Phi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pent</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>npar</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AICc</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>DeltaAICc</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Deviance</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ind_per_ha</t>
         </is>
@@ -420,44 +425,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2">
+        <v>80</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>0.86 [0.823-0.897]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>0.03 [0.022-0.037]</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>0.05 [0.028-0.08]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>19579 [16861-22801]</t>
         </is>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1871.070059855871</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.5560908241250312</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-9949.927799999999</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>201 [173-233]</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>192 [165-224]</t>
         </is>
       </c>
     </row>
@@ -467,44 +475,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3">
+        <v>81</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>0.87 [0.806-0.908]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.038]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>0.04 [0.026-0.086]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>19341 [16584-22627]</t>
         </is>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>11</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1872.718959287532</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.648899431660766</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.2438325984281831</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-9950.2976</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>175 [147-209]</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>190 [163-222]</t>
         </is>
       </c>
     </row>
@@ -514,44 +525,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>0.87 [0.825-0.898]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.034]</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>0.04 [0.028-0.067]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>19446 [16732-22666]</t>
         </is>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>9</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1874.650171186441</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3.580111330569707</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.09283985024564943</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-9944.330599999999</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>180 [151-215]</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>191 [164-222]</t>
         </is>
       </c>
     </row>
@@ -561,44 +575,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>0.86 [0.806-0.899]</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.035]</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>0.04 [0.028-0.068]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>19768 [16958-23113]</t>
         </is>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1875.689959855871</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4.619900000000143</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.0552010311660396</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-9945.3079</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>194 [167-226]</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>194 [166-227]</t>
         </is>
       </c>
     </row>
